--- a/admin/Notes2eme.xlsx
+++ b/admin/Notes2eme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\GIT\GITHUB_MAIN\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A05C2C-BA30-4424-A234-2A6F8AA12637}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5C7AA-CD09-4A69-AE62-947228600E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,24 +839,200 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,206 +1042,44 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="21">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF92D050"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1180,302 +1194,6 @@
           <bgColor rgb="FFFFCC29"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1825,7 +1543,7 @@
   <dimension ref="A1:AB65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,21 +1562,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
       <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1869,39 +1587,38 @@
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="130" t="s">
+      <c r="M2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="134">
+      <c r="N2" s="68">
         <v>5</v>
       </c>
       <c r="O2">
-        <f>5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="97"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="17">
         <v>1</v>
       </c>
@@ -1923,15 +1640,15 @@
       <c r="J3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="134">
+      <c r="K3" s="110"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="68">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -1951,16 +1668,16 @@
         <f>IF(K5&gt;1,L4,0)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="90">
+      <c r="L4" s="79">
         <v>4</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="67">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="108"/>
       <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
@@ -1975,20 +1692,18 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10">
         <f>N7</f>
-        <v>0</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="K5" s="38">
         <f>ROUND(IF(D4="",0,((C4*C5+D4*D5+E4*E5+F4*F5+G4*G5+H4*H5+I4*I5)/SUM(C4:I4)))+J5,1)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+        <v>4.3</v>
+      </c>
+      <c r="L5" s="80"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="67"/>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -2011,16 +1726,14 @@
         <f>IF(K7&gt;1,L6,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="86">
         <v>5</v>
       </c>
-      <c r="M6" s="131"/>
-      <c r="N6" s="133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="67"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="108"/>
       <c r="B7" s="23" t="s">
         <v>0</v>
       </c>
@@ -2041,14 +1754,14 @@
         <f>ROUND(IF(D6="",0,((((D6*D7+E6*E7+F6*F7+G6*G7+H6*H7+I6*I7)/SUM(D6:I6))+ J7) +C7)/2 ),1)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="104"/>
-      <c r="M7" s="132">
+      <c r="L7" s="87"/>
+      <c r="M7" s="66">
         <f>IF(AND(K4=0,K6=0),"-",ROUND(IF(AND(K4=0,K6=0),"-",((K5*L4)+(K7*L6))/SUM(K4,K6)),1))</f>
-        <v>4.5</v>
-      </c>
-      <c r="N7" s="133">
-        <f>(SUM(N2:N6)-(5*O2))/O2</f>
-        <v>0</v>
+        <v>4.3</v>
+      </c>
+      <c r="N7" s="67">
+        <f>((SUM(N2:N6))/O2-5)/O2</f>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2068,53 +1781,53 @@
       <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
       <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="80" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="58"/>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="130" t="s">
         <v>6</v>
       </c>
       <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="81"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="48">
         <v>1</v>
       </c>
@@ -2136,13 +1849,13 @@
       <c r="J11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="67"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="131"/>
       <c r="N11" s="63"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="122" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2162,12 +1875,12 @@
         <f>IF(K13&gt;0,L12,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="71">
         <v>3.5</v>
       </c>
-      <c r="M12" s="67"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="63"/>
-      <c r="O12" s="109"/>
+      <c r="O12" s="70"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="51"/>
       <c r="R12" s="52"/>
@@ -2178,11 +1891,11 @@
       <c r="W12" s="52"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="53"/>
-      <c r="Z12" s="115"/>
+      <c r="Z12" s="69"/>
       <c r="AA12" s="54"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123"/>
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
@@ -2200,10 +1913,10 @@
         <f>ROUND(IF(D12="",0,((C12*C13+D12*D13+E12*E13+F12*F13+G12*G13+H12*H13+I12*I13)/SUM(C12:I12)))+J13,1)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="67"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="131"/>
       <c r="N13" s="63"/>
-      <c r="O13" s="109"/>
+      <c r="O13" s="70"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="52"/>
@@ -2214,18 +1927,20 @@
       <c r="W13" s="52"/>
       <c r="X13" s="52"/>
       <c r="Y13" s="55"/>
-      <c r="Z13" s="115"/>
+      <c r="Z13" s="69"/>
       <c r="AA13" s="54"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2234,12 +1949,12 @@
       <c r="J14" s="6"/>
       <c r="K14" s="7">
         <f>IF(K15&gt;0,L14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="128">
         <v>3.5</v>
       </c>
-      <c r="M14" s="67"/>
+      <c r="L14" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="M14" s="131"/>
       <c r="N14" s="63"/>
       <c r="O14" s="59"/>
       <c r="P14" s="49"/>
@@ -2255,13 +1970,15 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="54"/>
     </row>
-    <row r="15" spans="1:27" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
+    <row r="15" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="125"/>
       <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -2270,12 +1987,12 @@
       <c r="J15" s="10"/>
       <c r="K15" s="47">
         <f>ROUND(IF(D14="",0,((C14*C15+D14*D15+E14*E15+F14*F15+G14*G15+H14*H15+I14*I15)/SUM(C14:I14)))+J15,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="129"/>
-      <c r="M15" s="67"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="131"/>
       <c r="N15" s="63"/>
-      <c r="O15" s="109"/>
+      <c r="O15" s="70"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="51"/>
       <c r="R15" s="52"/>
@@ -2286,11 +2003,11 @@
       <c r="W15" s="52"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="53"/>
-      <c r="Z15" s="115"/>
+      <c r="Z15" s="69"/>
       <c r="AA15" s="54"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="122" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2308,12 +2025,12 @@
         <f>IF(K17&gt;0,L16,0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="71">
         <v>3.5</v>
       </c>
-      <c r="M16" s="67"/>
+      <c r="M16" s="131"/>
       <c r="N16" s="63"/>
-      <c r="O16" s="109"/>
+      <c r="O16" s="70"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="51"/>
       <c r="R16" s="52"/>
@@ -2324,11 +2041,11 @@
       <c r="W16" s="52"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="55"/>
-      <c r="Z16" s="115"/>
+      <c r="Z16" s="69"/>
       <c r="AA16" s="54"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="123"/>
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
@@ -2344,10 +2061,10 @@
         <f>ROUND(IF(D16="",0,((C16*C17+D16*D17+E16*E17+F16*F17+G16*G17+H16*H17+I16*I17)/SUM(C16:I16)))+J17,1)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="71"/>
-      <c r="M17" s="67"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="131"/>
       <c r="N17" s="63"/>
-      <c r="O17" s="109"/>
+      <c r="O17" s="70"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="52"/>
@@ -2358,11 +2075,11 @@
       <c r="W17" s="52"/>
       <c r="X17" s="52"/>
       <c r="Y17" s="53"/>
-      <c r="Z17" s="115"/>
+      <c r="Z17" s="69"/>
       <c r="AA17" s="54"/>
     </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="122" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2380,12 +2097,12 @@
         <f>IF(K19&gt;0,L18,0)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="71">
         <v>3.5</v>
       </c>
-      <c r="M18" s="67"/>
+      <c r="M18" s="131"/>
       <c r="N18" s="63"/>
-      <c r="O18" s="109"/>
+      <c r="O18" s="70"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="52"/>
@@ -2396,11 +2113,11 @@
       <c r="W18" s="52"/>
       <c r="X18" s="52"/>
       <c r="Y18" s="55"/>
-      <c r="Z18" s="115"/>
+      <c r="Z18" s="69"/>
       <c r="AA18" s="54"/>
     </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+    <row r="19" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="123"/>
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
@@ -2416,10 +2133,10 @@
         <f>ROUND(IF(D18="",0,((C18*C19+D18*D19+E18*E19+F18*F19+G18*G19+H18*H19+I18*I19)/SUM(C18:I18)))+J19,1)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="71"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="39">
         <f>IF(AND(K13=0,K15=0,K17=0,K19=0),"-",ROUND(IF(AND(K13=0,K15=0,K17=0,K19=0),"-",((K13*L12)+(K15*L14)+(K17*L16)+(K19*L18))/SUM(K12,K14,K16,K18)),1))</f>
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="N19" s="63"/>
       <c r="O19" s="56"/>
@@ -2466,25 +2183,25 @@
       <c r="AA20" s="54"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="109"/>
+      <c r="O21" s="70"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="51"/>
       <c r="R21" s="52"/>
@@ -2495,37 +2212,37 @@
       <c r="W21" s="52"/>
       <c r="X21" s="52"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="115"/>
+      <c r="Z21" s="69"/>
       <c r="AA21" s="54"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="122" t="s">
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="124" t="s">
+      <c r="K22" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="126" t="s">
+      <c r="L22" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="115" t="s">
         <v>6</v>
       </c>
       <c r="N22" s="62">
         <v>0.1</v>
       </c>
-      <c r="O22" s="109"/>
+      <c r="O22" s="70"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="51"/>
       <c r="R22" s="52"/>
@@ -2536,13 +2253,13 @@
       <c r="W22" s="52"/>
       <c r="X22" s="52"/>
       <c r="Y22" s="55"/>
-      <c r="Z22" s="115"/>
+      <c r="Z22" s="69"/>
       <c r="AA22" s="57"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="123"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="26">
         <v>1</v>
       </c>
@@ -2564,9 +2281,9 @@
       <c r="J23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="125"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="75"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="115"/>
       <c r="N23" s="62"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -2581,8 +2298,8 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="107" t="s">
+    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -2605,16 +2322,16 @@
         <f>IF(K25&gt;0,L24,0)</f>
         <v>4</v>
       </c>
-      <c r="L24" s="111">
+      <c r="L24" s="82">
         <v>4</v>
       </c>
-      <c r="M24" s="75"/>
+      <c r="M24" s="115"/>
       <c r="N24" s="62"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
     </row>
-    <row r="25" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78"/>
       <c r="B25" s="21" t="s">
         <v>0</v>
       </c>
@@ -2635,14 +2352,14 @@
         <f>ROUND(IF(D24="",0,((C24*C25+D24*D25+E24*E25+F24*F25+G24*G25+H24*H25+I24*I25)/SUM(C24:I24)))+J25,1)</f>
         <v>3.8</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="75"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="115"/>
       <c r="N25" s="62"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -2660,16 +2377,16 @@
         <f>IF(K27&gt;0,L26,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="103">
+      <c r="L26" s="86">
         <v>3.5</v>
       </c>
-      <c r="M26" s="75"/>
+      <c r="M26" s="115"/>
       <c r="N26" s="62"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
+    <row r="27" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="85"/>
       <c r="B27" s="24" t="s">
         <v>0</v>
       </c>
@@ -2685,14 +2402,14 @@
         <f>ROUND(IF(D26="",0,((C26*C27+D26*D27+E26*E27+F26*F27+G26*G27+H26*H27+I26*I27)/SUM(C26:I26)))+J27,1)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="104"/>
-      <c r="M27" s="75"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="115"/>
       <c r="N27" s="62"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="107" t="s">
+    <row r="28" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -2712,16 +2429,16 @@
         <f>IF(K29&gt;0,L28,0)</f>
         <v>2.5</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L28" s="79">
         <v>2.5</v>
       </c>
-      <c r="M28" s="76"/>
+      <c r="M28" s="116"/>
       <c r="N28" s="62"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
+    <row r="29" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
       <c r="B29" s="21" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2456,7 @@
         <f>ROUND(IF(D28="",0,((C28*C29+D28*D29+E28*E29+F28*F29+G28*G29+H28*H29+I28*I29)/SUM(C28:I28)))+J29,1)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="L29" s="91"/>
+      <c r="L29" s="80"/>
       <c r="M29" s="61">
         <f>IF(AND(K25=0,K27=0,K29=0),"-",ROUND(IF(AND(K25=0,K27=0,K29=0),"-",((K25*L24)+(K27*L26)+(K29*L28))/SUM(K24,K26,K28)),1))</f>
         <v>4</v>
@@ -2859,12 +2576,12 @@
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
       <c r="T35" s="37"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="105"/>
-      <c r="X35" s="105"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
@@ -3259,14 +2976,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="M22:M28"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="M10:M18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="U35:X35"/>
     <mergeCell ref="Y35:Z35"/>
     <mergeCell ref="A28:A29"/>
@@ -3283,47 +3016,31 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="M22:M28"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="M10:M18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="Z17:Z18"/>
   </mergeCells>
   <conditionalFormatting sqref="K5 K7 K29 K27 K25 Y22 Y18:Y20 Y16 Y13:Y14 K15 K13 K19 M7 M19 M29">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="between">
       <formula>4</formula>
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5 K7 K29 K27 K25 Y22 Y18:Y20 Y16 Y13:Y14 K15 K13 K19 M7 M29 M19">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="between">
       <formula>5.3</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="between">
       <formula>4.6</formula>
       <formula>5.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="between">
       <formula>0.1</formula>
       <formula>4</formula>
     </cfRule>
@@ -3332,21 +3049,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="between">
       <formula>4</formula>
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
       <formula>5.3</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
       <formula>4.6</formula>
       <formula>5.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>4</formula>
     </cfRule>
@@ -3355,21 +3072,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="between">
       <formula>4</formula>
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>5.3</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
       <formula>4.6</formula>
       <formula>5.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>0.1</formula>
       <formula>4</formula>
     </cfRule>
@@ -3378,13 +3095,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>4.999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>-0.00000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3438,7 +3155,7 @@
       </c>
       <c r="C5" s="42">
         <f>'Semestre 1 &amp; 2'!$M$7</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3448,7 +3165,7 @@
       </c>
       <c r="C6" s="42">
         <f>'Semestre 1 &amp; 2'!M19</f>
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3474,24 +3191,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C7">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>4.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThanOrEqual">
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
